--- a/auto/test.xlsx
+++ b/auto/test.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>response_time</t>
+  </si>
   <si>
     <t>time_stamp</t>
   </si>
   <si>
-    <t>response_time</t>
+    <t>sample_1</t>
   </si>
   <si>
-    <t>sample_1</t>
+    <t>[1, 2, 3]</t>
   </si>
   <si>
     <t>sample_2</t>
@@ -413,22 +416,22 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
         <v>111</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
         <v>112</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
